--- a/App/Controllers/Excel/TurmasAlunos.xlsx
+++ b/App/Controllers/Excel/TurmasAlunos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
   <si>
     <t>cod_turma_pertence</t>
   </si>
@@ -20,6 +20,12 @@
   </si>
   <si>
     <t>PWDAM</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>RPT</t>
   </si>
 </sst>
 </file>
@@ -474,6 +480,110 @@
         <v>1.90208021E8</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.90208022E8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.90208023E8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1.90208024E8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1.90208025E8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1.90208026E8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1.90208027E8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1.90208028E8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1.90208029E8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1.9020803E8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1.90208031E8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1.90208031E8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1.9020803E8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1.90208021E8</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
